--- a/results/Table.xlsx
+++ b/results/Table.xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bravol/Desktop/JanetDec/New/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD33A8-C9A8-B448-AF8B-003DB915D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 - Lifestyle" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2 - Prevalence" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 1 - Lifestyle" r:id="rId3" sheetId="1"/>
+    <sheet name="Table 2 - Prevalence" r:id="rId4" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1841,10 +1833,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1856,7 +1849,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1874,326 +1867,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +1924,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +1970,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2331,7 +2016,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2039,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2062,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2085,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2423,7 +2108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +2131,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2515,7 +2200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2538,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2584,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +2338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2676,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +2384,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2407,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2745,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2791,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2499,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2522,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2860,7 +2545,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2883,7 +2568,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -2906,7 +2591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2614,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2998,7 +2683,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3021,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3067,7 +2752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +2798,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3136,7 +2821,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +2913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3274,7 +2959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -3298,19 +2983,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>238</v>
       </c>
@@ -3345,9 +3030,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>57979</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57979.0</v>
       </c>
       <c r="B2" t="s">
         <v>249</v>
@@ -3355,34 +3040,34 @@
       <c r="C2" t="s">
         <v>309</v>
       </c>
-      <c r="D2">
-        <v>26257</v>
+      <c r="D2" t="n">
+        <v>26257.0</v>
       </c>
       <c r="E2" t="s">
         <v>369</v>
       </c>
-      <c r="F2">
-        <v>4240</v>
+      <c r="F2" t="n">
+        <v>4240.0</v>
       </c>
       <c r="G2" t="s">
         <v>429</v>
       </c>
-      <c r="H2">
-        <v>23023</v>
+      <c r="H2" t="n">
+        <v>23023.0</v>
       </c>
       <c r="I2" t="s">
         <v>487</v>
       </c>
-      <c r="J2">
-        <v>4459</v>
+      <c r="J2" t="n">
+        <v>4459.0</v>
       </c>
       <c r="K2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>39956</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39956.0</v>
       </c>
       <c r="B3" t="s">
         <v>250</v>
@@ -3390,34 +3075,34 @@
       <c r="C3" t="s">
         <v>310</v>
       </c>
-      <c r="D3">
-        <v>17805</v>
+      <c r="D3" t="n">
+        <v>17805.0</v>
       </c>
       <c r="E3" t="s">
         <v>370</v>
       </c>
-      <c r="F3">
-        <v>3553</v>
+      <c r="F3" t="n">
+        <v>3553.0</v>
       </c>
       <c r="G3" t="s">
         <v>430</v>
       </c>
-      <c r="H3">
-        <v>16076</v>
+      <c r="H3" t="n">
+        <v>16076.0</v>
       </c>
       <c r="I3" t="s">
         <v>488</v>
       </c>
-      <c r="J3">
-        <v>2522</v>
+      <c r="J3" t="n">
+        <v>2522.0</v>
       </c>
       <c r="K3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>36901</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36901.0</v>
       </c>
       <c r="B4" t="s">
         <v>251</v>
@@ -3425,34 +3110,34 @@
       <c r="C4" t="s">
         <v>311</v>
       </c>
-      <c r="D4">
-        <v>16760</v>
+      <c r="D4" t="n">
+        <v>16760.0</v>
       </c>
       <c r="E4" t="s">
         <v>371</v>
       </c>
-      <c r="F4">
-        <v>3118</v>
+      <c r="F4" t="n">
+        <v>3118.0</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
       </c>
-      <c r="H4">
-        <v>14630</v>
+      <c r="H4" t="n">
+        <v>14630.0</v>
       </c>
       <c r="I4" t="s">
         <v>489</v>
       </c>
-      <c r="J4">
-        <v>2393</v>
+      <c r="J4" t="n">
+        <v>2393.0</v>
       </c>
       <c r="K4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>35393</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35393.0</v>
       </c>
       <c r="B5" t="s">
         <v>252</v>
@@ -3460,34 +3145,34 @@
       <c r="C5" t="s">
         <v>312</v>
       </c>
-      <c r="D5">
-        <v>16271</v>
+      <c r="D5" t="n">
+        <v>16271.0</v>
       </c>
       <c r="E5" t="s">
         <v>372</v>
       </c>
-      <c r="F5">
-        <v>3045</v>
+      <c r="F5" t="n">
+        <v>3045.0</v>
       </c>
       <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="H5">
-        <v>13779</v>
+      <c r="H5" t="n">
+        <v>13779.0</v>
       </c>
       <c r="I5" t="s">
         <v>490</v>
       </c>
-      <c r="J5">
-        <v>2298</v>
+      <c r="J5" t="n">
+        <v>2298.0</v>
       </c>
       <c r="K5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>34630</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34630.0</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
@@ -3495,34 +3180,34 @@
       <c r="C6" t="s">
         <v>313</v>
       </c>
-      <c r="D6">
-        <v>15255</v>
+      <c r="D6" t="n">
+        <v>15255.0</v>
       </c>
       <c r="E6" t="s">
         <v>373</v>
       </c>
-      <c r="F6">
-        <v>3137</v>
+      <c r="F6" t="n">
+        <v>3137.0</v>
       </c>
       <c r="G6" t="s">
         <v>433</v>
       </c>
-      <c r="H6">
-        <v>14137</v>
+      <c r="H6" t="n">
+        <v>14137.0</v>
       </c>
       <c r="I6" t="s">
         <v>491</v>
       </c>
-      <c r="J6">
-        <v>2101</v>
+      <c r="J6" t="n">
+        <v>2101.0</v>
       </c>
       <c r="K6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>29639</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29639.0</v>
       </c>
       <c r="B7" t="s">
         <v>254</v>
@@ -3530,34 +3215,34 @@
       <c r="C7" t="s">
         <v>314</v>
       </c>
-      <c r="D7">
-        <v>13636</v>
+      <c r="D7" t="n">
+        <v>13636.0</v>
       </c>
       <c r="E7" t="s">
         <v>374</v>
       </c>
-      <c r="F7">
-        <v>2565</v>
+      <c r="F7" t="n">
+        <v>2565.0</v>
       </c>
       <c r="G7" t="s">
         <v>434</v>
       </c>
-      <c r="H7">
-        <v>11546</v>
+      <c r="H7" t="n">
+        <v>11546.0</v>
       </c>
       <c r="I7" t="s">
         <v>492</v>
       </c>
-      <c r="J7">
-        <v>1892</v>
+      <c r="J7" t="n">
+        <v>1892.0</v>
       </c>
       <c r="K7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>28929</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28929.0</v>
       </c>
       <c r="B8" t="s">
         <v>255</v>
@@ -3565,34 +3250,34 @@
       <c r="C8" t="s">
         <v>315</v>
       </c>
-      <c r="D8">
-        <v>13030</v>
+      <c r="D8" t="n">
+        <v>13030.0</v>
       </c>
       <c r="E8" t="s">
         <v>375</v>
       </c>
-      <c r="F8">
-        <v>2136</v>
+      <c r="F8" t="n">
+        <v>2136.0</v>
       </c>
       <c r="G8" t="s">
         <v>435</v>
       </c>
-      <c r="H8">
-        <v>11565</v>
+      <c r="H8" t="n">
+        <v>11565.0</v>
       </c>
       <c r="I8" t="s">
         <v>493</v>
       </c>
-      <c r="J8">
-        <v>2198</v>
+      <c r="J8" t="n">
+        <v>2198.0</v>
       </c>
       <c r="K8" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>27003</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27003.0</v>
       </c>
       <c r="B9" t="s">
         <v>256</v>
@@ -3600,34 +3285,34 @@
       <c r="C9" t="s">
         <v>316</v>
       </c>
-      <c r="D9">
-        <v>12290</v>
+      <c r="D9" t="n">
+        <v>12290.0</v>
       </c>
       <c r="E9" t="s">
         <v>376</v>
       </c>
-      <c r="F9">
-        <v>2626</v>
+      <c r="F9" t="n">
+        <v>2626.0</v>
       </c>
       <c r="G9" t="s">
         <v>436</v>
       </c>
-      <c r="H9">
-        <v>10611</v>
+      <c r="H9" t="n">
+        <v>10611.0</v>
       </c>
       <c r="I9" t="s">
         <v>494</v>
       </c>
-      <c r="J9">
-        <v>1476</v>
+      <c r="J9" t="n">
+        <v>1476.0</v>
       </c>
       <c r="K9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>22956</v>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22956.0</v>
       </c>
       <c r="B10" t="s">
         <v>257</v>
@@ -3635,34 +3320,34 @@
       <c r="C10" t="s">
         <v>317</v>
       </c>
-      <c r="D10">
-        <v>9812</v>
+      <c r="D10" t="n">
+        <v>9812.0</v>
       </c>
       <c r="E10" t="s">
         <v>377</v>
       </c>
-      <c r="F10">
-        <v>1473</v>
+      <c r="F10" t="n">
+        <v>1473.0</v>
       </c>
       <c r="G10" t="s">
         <v>437</v>
       </c>
-      <c r="H10">
-        <v>9652</v>
+      <c r="H10" t="n">
+        <v>9652.0</v>
       </c>
       <c r="I10" t="s">
         <v>495</v>
       </c>
-      <c r="J10">
-        <v>2019</v>
+      <c r="J10" t="n">
+        <v>2019.0</v>
       </c>
       <c r="K10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>22120</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22120.0</v>
       </c>
       <c r="B11" t="s">
         <v>258</v>
@@ -3670,34 +3355,34 @@
       <c r="C11" t="s">
         <v>318</v>
       </c>
-      <c r="D11">
-        <v>10101</v>
+      <c r="D11" t="n">
+        <v>10101.0</v>
       </c>
       <c r="E11" t="s">
         <v>378</v>
       </c>
-      <c r="F11">
-        <v>2059</v>
+      <c r="F11" t="n">
+        <v>2059.0</v>
       </c>
       <c r="G11" t="s">
         <v>438</v>
       </c>
-      <c r="H11">
-        <v>8429</v>
+      <c r="H11" t="n">
+        <v>8429.0</v>
       </c>
       <c r="I11" t="s">
         <v>496</v>
       </c>
-      <c r="J11">
-        <v>1531</v>
+      <c r="J11" t="n">
+        <v>1531.0</v>
       </c>
       <c r="K11" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>18965</v>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18965.0</v>
       </c>
       <c r="B12" t="s">
         <v>259</v>
@@ -3705,34 +3390,34 @@
       <c r="C12" t="s">
         <v>319</v>
       </c>
-      <c r="D12">
-        <v>8074</v>
+      <c r="D12" t="n">
+        <v>8074.0</v>
       </c>
       <c r="E12" t="s">
         <v>379</v>
       </c>
-      <c r="F12">
-        <v>1326</v>
+      <c r="F12" t="n">
+        <v>1326.0</v>
       </c>
       <c r="G12" t="s">
         <v>439</v>
       </c>
-      <c r="H12">
-        <v>7937</v>
+      <c r="H12" t="n">
+        <v>7937.0</v>
       </c>
       <c r="I12" t="s">
         <v>497</v>
       </c>
-      <c r="J12">
-        <v>1628</v>
+      <c r="J12" t="n">
+        <v>1628.0</v>
       </c>
       <c r="K12" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>18053</v>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18053.0</v>
       </c>
       <c r="B13" t="s">
         <v>260</v>
@@ -3740,34 +3425,34 @@
       <c r="C13" t="s">
         <v>320</v>
       </c>
-      <c r="D13">
-        <v>8192</v>
+      <c r="D13" t="n">
+        <v>8192.0</v>
       </c>
       <c r="E13" t="s">
         <v>380</v>
       </c>
-      <c r="F13">
-        <v>1308</v>
+      <c r="F13" t="n">
+        <v>1308.0</v>
       </c>
       <c r="G13" t="s">
         <v>440</v>
       </c>
-      <c r="H13">
-        <v>7280</v>
+      <c r="H13" t="n">
+        <v>7280.0</v>
       </c>
       <c r="I13" t="s">
         <v>498</v>
       </c>
-      <c r="J13">
-        <v>1273</v>
+      <c r="J13" t="n">
+        <v>1273.0</v>
       </c>
       <c r="K13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>17197</v>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17197.0</v>
       </c>
       <c r="B14" t="s">
         <v>261</v>
@@ -3775,34 +3460,34 @@
       <c r="C14" t="s">
         <v>321</v>
       </c>
-      <c r="D14">
-        <v>7058</v>
+      <c r="D14" t="n">
+        <v>7058.0</v>
       </c>
       <c r="E14" t="s">
         <v>381</v>
       </c>
-      <c r="F14">
-        <v>994</v>
+      <c r="F14" t="n">
+        <v>994.0</v>
       </c>
       <c r="G14" t="s">
         <v>441</v>
       </c>
-      <c r="H14">
-        <v>7535</v>
+      <c r="H14" t="n">
+        <v>7535.0</v>
       </c>
       <c r="I14" t="s">
         <v>499</v>
       </c>
-      <c r="J14">
-        <v>1610</v>
+      <c r="J14" t="n">
+        <v>1610.0</v>
       </c>
       <c r="K14" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>16279</v>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16279.0</v>
       </c>
       <c r="B15" t="s">
         <v>262</v>
@@ -3810,34 +3495,34 @@
       <c r="C15" t="s">
         <v>322</v>
       </c>
-      <c r="D15">
-        <v>6084</v>
+      <c r="D15" t="n">
+        <v>6084.0</v>
       </c>
       <c r="E15" t="s">
         <v>382</v>
       </c>
-      <c r="F15">
-        <v>376</v>
+      <c r="F15" t="n">
+        <v>376.0</v>
       </c>
       <c r="G15" t="s">
         <v>442</v>
       </c>
-      <c r="H15">
-        <v>7616</v>
+      <c r="H15" t="n">
+        <v>7616.0</v>
       </c>
       <c r="I15" t="s">
         <v>500</v>
       </c>
-      <c r="J15">
-        <v>2203</v>
+      <c r="J15" t="n">
+        <v>2203.0</v>
       </c>
       <c r="K15" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14453</v>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14453.0</v>
       </c>
       <c r="B16" t="s">
         <v>263</v>
@@ -3845,34 +3530,34 @@
       <c r="C16" t="s">
         <v>323</v>
       </c>
-      <c r="D16">
-        <v>6348</v>
+      <c r="D16" t="n">
+        <v>6348.0</v>
       </c>
       <c r="E16" t="s">
         <v>383</v>
       </c>
-      <c r="F16">
-        <v>1207</v>
+      <c r="F16" t="n">
+        <v>1207.0</v>
       </c>
       <c r="G16" t="s">
         <v>443</v>
       </c>
-      <c r="H16">
-        <v>5930</v>
+      <c r="H16" t="n">
+        <v>5930.0</v>
       </c>
       <c r="I16" t="s">
         <v>501</v>
       </c>
-      <c r="J16">
-        <v>968</v>
+      <c r="J16" t="n">
+        <v>968.0</v>
       </c>
       <c r="K16" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13568</v>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13568.0</v>
       </c>
       <c r="B17" t="s">
         <v>264</v>
@@ -3880,34 +3565,34 @@
       <c r="C17" t="s">
         <v>324</v>
       </c>
-      <c r="D17">
-        <v>5408</v>
+      <c r="D17" t="n">
+        <v>5408.0</v>
       </c>
       <c r="E17" t="s">
         <v>384</v>
       </c>
-      <c r="F17">
-        <v>857</v>
+      <c r="F17" t="n">
+        <v>857.0</v>
       </c>
       <c r="G17" t="s">
         <v>444</v>
       </c>
-      <c r="H17">
-        <v>6118</v>
+      <c r="H17" t="n">
+        <v>6118.0</v>
       </c>
       <c r="I17" t="s">
         <v>502</v>
       </c>
-      <c r="J17">
-        <v>1185</v>
+      <c r="J17" t="n">
+        <v>1185.0</v>
       </c>
       <c r="K17" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>13102</v>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>13102.0</v>
       </c>
       <c r="B18" t="s">
         <v>265</v>
@@ -3915,34 +3600,34 @@
       <c r="C18" t="s">
         <v>325</v>
       </c>
-      <c r="D18">
-        <v>5984</v>
+      <c r="D18" t="n">
+        <v>5984.0</v>
       </c>
       <c r="E18" t="s">
         <v>385</v>
       </c>
-      <c r="F18">
-        <v>1102</v>
+      <c r="F18" t="n">
+        <v>1102.0</v>
       </c>
       <c r="G18" t="s">
         <v>445</v>
       </c>
-      <c r="H18">
-        <v>5096</v>
+      <c r="H18" t="n">
+        <v>5096.0</v>
       </c>
       <c r="I18" t="s">
         <v>503</v>
       </c>
-      <c r="J18">
-        <v>920</v>
+      <c r="J18" t="n">
+        <v>920.0</v>
       </c>
       <c r="K18" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>12690</v>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12690.0</v>
       </c>
       <c r="B19" t="s">
         <v>266</v>
@@ -3950,34 +3635,34 @@
       <c r="C19" t="s">
         <v>326</v>
       </c>
-      <c r="D19">
-        <v>5820</v>
+      <c r="D19" t="n">
+        <v>5820.0</v>
       </c>
       <c r="E19" t="s">
         <v>386</v>
       </c>
-      <c r="F19">
-        <v>1163</v>
+      <c r="F19" t="n">
+        <v>1163.0</v>
       </c>
       <c r="G19" t="s">
         <v>446</v>
       </c>
-      <c r="H19">
-        <v>4883</v>
+      <c r="H19" t="n">
+        <v>4883.0</v>
       </c>
       <c r="I19" t="s">
         <v>504</v>
       </c>
-      <c r="J19">
-        <v>824</v>
+      <c r="J19" t="n">
+        <v>824.0</v>
       </c>
       <c r="K19" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>12369</v>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12369.0</v>
       </c>
       <c r="B20" t="s">
         <v>267</v>
@@ -3985,34 +3670,34 @@
       <c r="C20" t="s">
         <v>327</v>
       </c>
-      <c r="D20">
-        <v>5042</v>
+      <c r="D20" t="n">
+        <v>5042.0</v>
       </c>
       <c r="E20" t="s">
         <v>387</v>
       </c>
-      <c r="F20">
-        <v>578</v>
+      <c r="F20" t="n">
+        <v>578.0</v>
       </c>
       <c r="G20" t="s">
         <v>447</v>
       </c>
-      <c r="H20">
-        <v>5507</v>
+      <c r="H20" t="n">
+        <v>5507.0</v>
       </c>
       <c r="I20" t="s">
         <v>505</v>
       </c>
-      <c r="J20">
-        <v>1242</v>
+      <c r="J20" t="n">
+        <v>1242.0</v>
       </c>
       <c r="K20" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>12123</v>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12123.0</v>
       </c>
       <c r="B21" t="s">
         <v>268</v>
@@ -4020,34 +3705,34 @@
       <c r="C21" t="s">
         <v>328</v>
       </c>
-      <c r="D21">
-        <v>5299</v>
+      <c r="D21" t="n">
+        <v>5299.0</v>
       </c>
       <c r="E21" t="s">
         <v>388</v>
       </c>
-      <c r="F21">
-        <v>863</v>
+      <c r="F21" t="n">
+        <v>863.0</v>
       </c>
       <c r="G21" t="s">
         <v>448</v>
       </c>
-      <c r="H21">
-        <v>5063</v>
+      <c r="H21" t="n">
+        <v>5063.0</v>
       </c>
       <c r="I21" t="s">
         <v>506</v>
       </c>
-      <c r="J21">
-        <v>898</v>
+      <c r="J21" t="n">
+        <v>898.0</v>
       </c>
       <c r="K21" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>12108</v>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12108.0</v>
       </c>
       <c r="B22" t="s">
         <v>269</v>
@@ -4055,34 +3740,34 @@
       <c r="C22" t="s">
         <v>329</v>
       </c>
-      <c r="D22">
-        <v>5301</v>
+      <c r="D22" t="n">
+        <v>5301.0</v>
       </c>
       <c r="E22" t="s">
         <v>389</v>
       </c>
-      <c r="F22">
-        <v>958</v>
+      <c r="F22" t="n">
+        <v>958.0</v>
       </c>
       <c r="G22" t="s">
         <v>449</v>
       </c>
-      <c r="H22">
-        <v>4974</v>
+      <c r="H22" t="n">
+        <v>4974.0</v>
       </c>
       <c r="I22" t="s">
         <v>507</v>
       </c>
-      <c r="J22">
-        <v>875</v>
+      <c r="J22" t="n">
+        <v>875.0</v>
       </c>
       <c r="K22" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10814</v>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10814.0</v>
       </c>
       <c r="B23" t="s">
         <v>270</v>
@@ -4090,34 +3775,34 @@
       <c r="C23" t="s">
         <v>330</v>
       </c>
-      <c r="D23">
-        <v>4841</v>
+      <c r="D23" t="n">
+        <v>4841.0</v>
       </c>
       <c r="E23" t="s">
         <v>390</v>
       </c>
-      <c r="F23">
-        <v>959</v>
+      <c r="F23" t="n">
+        <v>959.0</v>
       </c>
       <c r="G23" t="s">
         <v>450</v>
       </c>
-      <c r="H23">
-        <v>4210</v>
+      <c r="H23" t="n">
+        <v>4210.0</v>
       </c>
       <c r="I23" t="s">
         <v>508</v>
       </c>
-      <c r="J23">
-        <v>804</v>
+      <c r="J23" t="n">
+        <v>804.0</v>
       </c>
       <c r="K23" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10644</v>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10644.0</v>
       </c>
       <c r="B24" t="s">
         <v>271</v>
@@ -4125,34 +3810,34 @@
       <c r="C24" t="s">
         <v>331</v>
       </c>
-      <c r="D24">
-        <v>4732</v>
+      <c r="D24" t="n">
+        <v>4732.0</v>
       </c>
       <c r="E24" t="s">
         <v>391</v>
       </c>
-      <c r="F24">
-        <v>830</v>
+      <c r="F24" t="n">
+        <v>830.0</v>
       </c>
       <c r="G24" t="s">
         <v>451</v>
       </c>
-      <c r="H24">
-        <v>4301</v>
+      <c r="H24" t="n">
+        <v>4301.0</v>
       </c>
       <c r="I24" t="s">
         <v>509</v>
       </c>
-      <c r="J24">
-        <v>781</v>
+      <c r="J24" t="n">
+        <v>781.0</v>
       </c>
       <c r="K24" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10205</v>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10205.0</v>
       </c>
       <c r="B25" t="s">
         <v>272</v>
@@ -4160,34 +3845,34 @@
       <c r="C25" t="s">
         <v>332</v>
       </c>
-      <c r="D25">
-        <v>4397</v>
+      <c r="D25" t="n">
+        <v>4397.0</v>
       </c>
       <c r="E25" t="s">
         <v>392</v>
       </c>
-      <c r="F25">
-        <v>678</v>
+      <c r="F25" t="n">
+        <v>678.0</v>
       </c>
       <c r="G25" t="s">
         <v>452</v>
       </c>
-      <c r="H25">
-        <v>4321</v>
+      <c r="H25" t="n">
+        <v>4321.0</v>
       </c>
       <c r="I25" t="s">
         <v>510</v>
       </c>
-      <c r="J25">
-        <v>809</v>
+      <c r="J25" t="n">
+        <v>809.0</v>
       </c>
       <c r="K25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9649</v>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9649.0</v>
       </c>
       <c r="B26" t="s">
         <v>273</v>
@@ -4195,34 +3880,34 @@
       <c r="C26" t="s">
         <v>333</v>
       </c>
-      <c r="D26">
-        <v>3913</v>
+      <c r="D26" t="n">
+        <v>3913.0</v>
       </c>
       <c r="E26" t="s">
         <v>393</v>
       </c>
-      <c r="F26">
-        <v>424</v>
+      <c r="F26" t="n">
+        <v>424.0</v>
       </c>
       <c r="G26" t="s">
         <v>453</v>
       </c>
-      <c r="H26">
-        <v>4279</v>
+      <c r="H26" t="n">
+        <v>4279.0</v>
       </c>
       <c r="I26" t="s">
         <v>511</v>
       </c>
-      <c r="J26">
-        <v>1033</v>
+      <c r="J26" t="n">
+        <v>1033.0</v>
       </c>
       <c r="K26" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8936</v>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8936.0</v>
       </c>
       <c r="B27" t="s">
         <v>274</v>
@@ -4230,34 +3915,34 @@
       <c r="C27" t="s">
         <v>334</v>
       </c>
-      <c r="D27">
-        <v>3783</v>
+      <c r="D27" t="n">
+        <v>3783.0</v>
       </c>
       <c r="E27" t="s">
         <v>394</v>
       </c>
-      <c r="F27">
-        <v>602</v>
+      <c r="F27" t="n">
+        <v>602.0</v>
       </c>
       <c r="G27" t="s">
         <v>454</v>
       </c>
-      <c r="H27">
-        <v>3743</v>
+      <c r="H27" t="n">
+        <v>3743.0</v>
       </c>
       <c r="I27" t="s">
         <v>512</v>
       </c>
-      <c r="J27">
-        <v>808</v>
+      <c r="J27" t="n">
+        <v>808.0</v>
       </c>
       <c r="K27" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>8759</v>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8759.0</v>
       </c>
       <c r="B28" t="s">
         <v>275</v>
@@ -4265,34 +3950,34 @@
       <c r="C28" t="s">
         <v>335</v>
       </c>
-      <c r="D28">
-        <v>3174</v>
+      <c r="D28" t="n">
+        <v>3174.0</v>
       </c>
       <c r="E28" t="s">
         <v>395</v>
       </c>
-      <c r="F28">
-        <v>426</v>
+      <c r="F28" t="n">
+        <v>426.0</v>
       </c>
       <c r="G28" t="s">
         <v>455</v>
       </c>
-      <c r="H28">
-        <v>4233</v>
+      <c r="H28" t="n">
+        <v>4233.0</v>
       </c>
       <c r="I28" t="s">
         <v>513</v>
       </c>
-      <c r="J28">
-        <v>926</v>
+      <c r="J28" t="n">
+        <v>926.0</v>
       </c>
       <c r="K28" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8565</v>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8565.0</v>
       </c>
       <c r="B29" t="s">
         <v>276</v>
@@ -4300,34 +3985,34 @@
       <c r="C29" t="s">
         <v>336</v>
       </c>
-      <c r="D29">
-        <v>3799</v>
+      <c r="D29" t="n">
+        <v>3799.0</v>
       </c>
       <c r="E29" t="s">
         <v>396</v>
       </c>
-      <c r="F29">
-        <v>720</v>
+      <c r="F29" t="n">
+        <v>720.0</v>
       </c>
       <c r="G29" t="s">
         <v>456</v>
       </c>
-      <c r="H29">
-        <v>3495</v>
+      <c r="H29" t="n">
+        <v>3495.0</v>
       </c>
       <c r="I29" t="s">
         <v>514</v>
       </c>
-      <c r="J29">
-        <v>551</v>
+      <c r="J29" t="n">
+        <v>551.0</v>
       </c>
       <c r="K29" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>8032</v>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8032.0</v>
       </c>
       <c r="B30" t="s">
         <v>277</v>
@@ -4335,34 +4020,34 @@
       <c r="C30" t="s">
         <v>337</v>
       </c>
-      <c r="D30">
-        <v>3667</v>
+      <c r="D30" t="n">
+        <v>3667.0</v>
       </c>
       <c r="E30" t="s">
         <v>397</v>
       </c>
-      <c r="F30">
-        <v>835</v>
+      <c r="F30" t="n">
+        <v>835.0</v>
       </c>
       <c r="G30" t="s">
         <v>457</v>
       </c>
-      <c r="H30">
-        <v>3097</v>
+      <c r="H30" t="n">
+        <v>3097.0</v>
       </c>
       <c r="I30" t="s">
         <v>515</v>
       </c>
-      <c r="J30">
-        <v>433</v>
+      <c r="J30" t="n">
+        <v>433.0</v>
       </c>
       <c r="K30" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>7822</v>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7822.0</v>
       </c>
       <c r="B31" t="s">
         <v>278</v>
@@ -4370,34 +4055,34 @@
       <c r="C31" t="s">
         <v>338</v>
       </c>
-      <c r="D31">
-        <v>3550</v>
+      <c r="D31" t="n">
+        <v>3550.0</v>
       </c>
       <c r="E31" t="s">
         <v>398</v>
       </c>
-      <c r="F31">
-        <v>654</v>
+      <c r="F31" t="n">
+        <v>654.0</v>
       </c>
       <c r="G31" t="s">
         <v>458</v>
       </c>
-      <c r="H31">
-        <v>3170</v>
+      <c r="H31" t="n">
+        <v>3170.0</v>
       </c>
       <c r="I31" t="s">
         <v>516</v>
       </c>
-      <c r="J31">
-        <v>448</v>
+      <c r="J31" t="n">
+        <v>448.0</v>
       </c>
       <c r="K31" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>7710</v>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7710.0</v>
       </c>
       <c r="B32" t="s">
         <v>279</v>
@@ -4405,34 +4090,34 @@
       <c r="C32" t="s">
         <v>339</v>
       </c>
-      <c r="D32">
-        <v>2495</v>
+      <c r="D32" t="n">
+        <v>2495.0</v>
       </c>
       <c r="E32" t="s">
         <v>399</v>
       </c>
-      <c r="F32">
-        <v>230</v>
+      <c r="F32" t="n">
+        <v>230.0</v>
       </c>
       <c r="G32" t="s">
         <v>459</v>
       </c>
-      <c r="H32">
-        <v>3949</v>
+      <c r="H32" t="n">
+        <v>3949.0</v>
       </c>
       <c r="I32" t="s">
         <v>517</v>
       </c>
-      <c r="J32">
-        <v>1036</v>
+      <c r="J32" t="n">
+        <v>1036.0</v>
       </c>
       <c r="K32" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>7491</v>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7491.0</v>
       </c>
       <c r="B33" t="s">
         <v>280</v>
@@ -4440,34 +4125,34 @@
       <c r="C33" t="s">
         <v>340</v>
       </c>
-      <c r="D33">
-        <v>3024</v>
+      <c r="D33" t="n">
+        <v>3024.0</v>
       </c>
       <c r="E33" t="s">
         <v>400</v>
       </c>
-      <c r="F33">
-        <v>443</v>
+      <c r="F33" t="n">
+        <v>443.0</v>
       </c>
       <c r="G33" t="s">
         <v>460</v>
       </c>
-      <c r="H33">
-        <v>3319</v>
+      <c r="H33" t="n">
+        <v>3319.0</v>
       </c>
       <c r="I33" t="s">
         <v>518</v>
       </c>
-      <c r="J33">
-        <v>705</v>
+      <c r="J33" t="n">
+        <v>705.0</v>
       </c>
       <c r="K33" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>7168</v>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7168.0</v>
       </c>
       <c r="B34" t="s">
         <v>281</v>
@@ -4475,34 +4160,34 @@
       <c r="C34" t="s">
         <v>341</v>
       </c>
-      <c r="D34">
-        <v>2874</v>
+      <c r="D34" t="n">
+        <v>2874.0</v>
       </c>
       <c r="E34" t="s">
         <v>401</v>
       </c>
-      <c r="F34">
-        <v>473</v>
+      <c r="F34" t="n">
+        <v>473.0</v>
       </c>
       <c r="G34" t="s">
         <v>461</v>
       </c>
-      <c r="H34">
-        <v>3240</v>
+      <c r="H34" t="n">
+        <v>3240.0</v>
       </c>
       <c r="I34" t="s">
         <v>519</v>
       </c>
-      <c r="J34">
-        <v>581</v>
+      <c r="J34" t="n">
+        <v>581.0</v>
       </c>
       <c r="K34" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>6785</v>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6785.0</v>
       </c>
       <c r="B35" t="s">
         <v>282</v>
@@ -4510,34 +4195,34 @@
       <c r="C35" t="s">
         <v>342</v>
       </c>
-      <c r="D35">
-        <v>3056</v>
+      <c r="D35" t="n">
+        <v>3056.0</v>
       </c>
       <c r="E35" t="s">
         <v>402</v>
       </c>
-      <c r="F35">
-        <v>728</v>
+      <c r="F35" t="n">
+        <v>728.0</v>
       </c>
       <c r="G35" t="s">
         <v>462</v>
       </c>
-      <c r="H35">
-        <v>2595</v>
+      <c r="H35" t="n">
+        <v>2595.0</v>
       </c>
       <c r="I35" t="s">
         <v>520</v>
       </c>
-      <c r="J35">
-        <v>406</v>
+      <c r="J35" t="n">
+        <v>406.0</v>
       </c>
       <c r="K35" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>6088</v>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6088.0</v>
       </c>
       <c r="B36" t="s">
         <v>283</v>
@@ -4545,34 +4230,34 @@
       <c r="C36" t="s">
         <v>343</v>
       </c>
-      <c r="D36">
-        <v>2512</v>
+      <c r="D36" t="n">
+        <v>2512.0</v>
       </c>
       <c r="E36" t="s">
         <v>403</v>
       </c>
-      <c r="F36">
-        <v>433</v>
+      <c r="F36" t="n">
+        <v>433.0</v>
       </c>
       <c r="G36" t="s">
         <v>463</v>
       </c>
-      <c r="H36">
-        <v>2662</v>
+      <c r="H36" t="n">
+        <v>2662.0</v>
       </c>
       <c r="I36" t="s">
         <v>521</v>
       </c>
-      <c r="J36">
-        <v>481</v>
+      <c r="J36" t="n">
+        <v>481.0</v>
       </c>
       <c r="K36" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>5866</v>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5866.0</v>
       </c>
       <c r="B37" t="s">
         <v>284</v>
@@ -4580,34 +4265,34 @@
       <c r="C37" t="s">
         <v>344</v>
       </c>
-      <c r="D37">
-        <v>2349</v>
+      <c r="D37" t="n">
+        <v>2349.0</v>
       </c>
       <c r="E37" t="s">
         <v>404</v>
       </c>
-      <c r="F37">
-        <v>351</v>
+      <c r="F37" t="n">
+        <v>351.0</v>
       </c>
       <c r="G37" t="s">
         <v>464</v>
       </c>
-      <c r="H37">
-        <v>2618</v>
+      <c r="H37" t="n">
+        <v>2618.0</v>
       </c>
       <c r="I37" t="s">
         <v>522</v>
       </c>
-      <c r="J37">
-        <v>548</v>
+      <c r="J37" t="n">
+        <v>548.0</v>
       </c>
       <c r="K37" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>5015</v>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5015.0</v>
       </c>
       <c r="B38" t="s">
         <v>285</v>
@@ -4615,34 +4300,34 @@
       <c r="C38" t="s">
         <v>345</v>
       </c>
-      <c r="D38">
-        <v>2098</v>
+      <c r="D38" t="n">
+        <v>2098.0</v>
       </c>
       <c r="E38" t="s">
         <v>405</v>
       </c>
-      <c r="F38">
-        <v>335</v>
+      <c r="F38" t="n">
+        <v>335.0</v>
       </c>
       <c r="G38" t="s">
         <v>465</v>
       </c>
-      <c r="H38">
-        <v>2155</v>
+      <c r="H38" t="n">
+        <v>2155.0</v>
       </c>
       <c r="I38" t="s">
         <v>523</v>
       </c>
-      <c r="J38">
-        <v>427</v>
+      <c r="J38" t="n">
+        <v>427.0</v>
       </c>
       <c r="K38" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>4749</v>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4749.0</v>
       </c>
       <c r="B39" t="s">
         <v>286</v>
@@ -4650,34 +4335,34 @@
       <c r="C39" t="s">
         <v>346</v>
       </c>
-      <c r="D39">
-        <v>2033</v>
+      <c r="D39" t="n">
+        <v>2033.0</v>
       </c>
       <c r="E39" t="s">
         <v>406</v>
       </c>
-      <c r="F39">
-        <v>376</v>
+      <c r="F39" t="n">
+        <v>376.0</v>
       </c>
       <c r="G39" t="s">
         <v>442</v>
       </c>
-      <c r="H39">
-        <v>1970</v>
+      <c r="H39" t="n">
+        <v>1970.0</v>
       </c>
       <c r="I39" t="s">
         <v>524</v>
       </c>
-      <c r="J39">
-        <v>370</v>
+      <c r="J39" t="n">
+        <v>370.0</v>
       </c>
       <c r="K39" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4364</v>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4364.0</v>
       </c>
       <c r="B40" t="s">
         <v>287</v>
@@ -4685,34 +4370,34 @@
       <c r="C40" t="s">
         <v>347</v>
       </c>
-      <c r="D40">
-        <v>1827</v>
+      <c r="D40" t="n">
+        <v>1827.0</v>
       </c>
       <c r="E40" t="s">
         <v>407</v>
       </c>
-      <c r="F40">
-        <v>224</v>
+      <c r="F40" t="n">
+        <v>224.0</v>
       </c>
       <c r="G40" t="s">
         <v>466</v>
       </c>
-      <c r="H40">
-        <v>1874</v>
+      <c r="H40" t="n">
+        <v>1874.0</v>
       </c>
       <c r="I40" t="s">
         <v>525</v>
       </c>
-      <c r="J40">
-        <v>439</v>
+      <c r="J40" t="n">
+        <v>439.0</v>
       </c>
       <c r="K40" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>4163</v>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4163.0</v>
       </c>
       <c r="B41" t="s">
         <v>288</v>
@@ -4720,34 +4405,34 @@
       <c r="C41" t="s">
         <v>348</v>
       </c>
-      <c r="D41">
-        <v>1627</v>
+      <c r="D41" t="n">
+        <v>1627.0</v>
       </c>
       <c r="E41" t="s">
         <v>408</v>
       </c>
-      <c r="F41">
-        <v>174</v>
+      <c r="F41" t="n">
+        <v>174.0</v>
       </c>
       <c r="G41" t="s">
         <v>467</v>
       </c>
-      <c r="H41">
-        <v>1949</v>
+      <c r="H41" t="n">
+        <v>1949.0</v>
       </c>
       <c r="I41" t="s">
         <v>526</v>
       </c>
-      <c r="J41">
-        <v>413</v>
+      <c r="J41" t="n">
+        <v>413.0</v>
       </c>
       <c r="K41" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>4021</v>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4021.0</v>
       </c>
       <c r="B42" t="s">
         <v>289</v>
@@ -4755,34 +4440,34 @@
       <c r="C42" t="s">
         <v>349</v>
       </c>
-      <c r="D42">
-        <v>1844</v>
+      <c r="D42" t="n">
+        <v>1844.0</v>
       </c>
       <c r="E42" t="s">
         <v>409</v>
       </c>
-      <c r="F42">
-        <v>388</v>
+      <c r="F42" t="n">
+        <v>388.0</v>
       </c>
       <c r="G42" t="s">
         <v>468</v>
       </c>
-      <c r="H42">
-        <v>1519</v>
+      <c r="H42" t="n">
+        <v>1519.0</v>
       </c>
       <c r="I42" t="s">
         <v>527</v>
       </c>
-      <c r="J42">
-        <v>270</v>
+      <c r="J42" t="n">
+        <v>270.0</v>
       </c>
       <c r="K42" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>3457</v>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3457.0</v>
       </c>
       <c r="B43" t="s">
         <v>290</v>
@@ -4790,34 +4475,34 @@
       <c r="C43" t="s">
         <v>350</v>
       </c>
-      <c r="D43">
-        <v>1593</v>
+      <c r="D43" t="n">
+        <v>1593.0</v>
       </c>
       <c r="E43" t="s">
         <v>410</v>
       </c>
-      <c r="F43">
-        <v>328</v>
+      <c r="F43" t="n">
+        <v>328.0</v>
       </c>
       <c r="G43" t="s">
         <v>469</v>
       </c>
-      <c r="H43">
-        <v>1373</v>
+      <c r="H43" t="n">
+        <v>1373.0</v>
       </c>
       <c r="I43" t="s">
         <v>528</v>
       </c>
-      <c r="J43">
-        <v>163</v>
+      <c r="J43" t="n">
+        <v>163.0</v>
       </c>
       <c r="K43" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3446</v>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3446.0</v>
       </c>
       <c r="B44" t="s">
         <v>291</v>
@@ -4825,34 +4510,34 @@
       <c r="C44" t="s">
         <v>351</v>
       </c>
-      <c r="D44">
-        <v>1373</v>
+      <c r="D44" t="n">
+        <v>1373.0</v>
       </c>
       <c r="E44" t="s">
         <v>411</v>
       </c>
-      <c r="F44">
-        <v>185</v>
+      <c r="F44" t="n">
+        <v>185.0</v>
       </c>
       <c r="G44" t="s">
         <v>470</v>
       </c>
-      <c r="H44">
-        <v>1524</v>
+      <c r="H44" t="n">
+        <v>1524.0</v>
       </c>
       <c r="I44" t="s">
         <v>529</v>
       </c>
-      <c r="J44">
-        <v>364</v>
+      <c r="J44" t="n">
+        <v>364.0</v>
       </c>
       <c r="K44" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>3419</v>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3419.0</v>
       </c>
       <c r="B45" t="s">
         <v>292</v>
@@ -4860,34 +4545,34 @@
       <c r="C45" t="s">
         <v>352</v>
       </c>
-      <c r="D45">
-        <v>1320</v>
+      <c r="D45" t="n">
+        <v>1320.0</v>
       </c>
       <c r="E45" t="s">
         <v>412</v>
       </c>
-      <c r="F45">
-        <v>224</v>
+      <c r="F45" t="n">
+        <v>224.0</v>
       </c>
       <c r="G45" t="s">
         <v>466</v>
       </c>
-      <c r="H45">
-        <v>1551</v>
+      <c r="H45" t="n">
+        <v>1551.0</v>
       </c>
       <c r="I45" t="s">
         <v>530</v>
       </c>
-      <c r="J45">
-        <v>324</v>
+      <c r="J45" t="n">
+        <v>324.0</v>
       </c>
       <c r="K45" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3216</v>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3216.0</v>
       </c>
       <c r="B46" t="s">
         <v>293</v>
@@ -4895,34 +4580,34 @@
       <c r="C46" t="s">
         <v>353</v>
       </c>
-      <c r="D46">
-        <v>1207</v>
+      <c r="D46" t="n">
+        <v>1207.0</v>
       </c>
       <c r="E46" t="s">
         <v>413</v>
       </c>
-      <c r="F46">
-        <v>195</v>
+      <c r="F46" t="n">
+        <v>195.0</v>
       </c>
       <c r="G46" t="s">
         <v>471</v>
       </c>
-      <c r="H46">
-        <v>1523</v>
+      <c r="H46" t="n">
+        <v>1523.0</v>
       </c>
       <c r="I46" t="s">
         <v>531</v>
       </c>
-      <c r="J46">
-        <v>291</v>
+      <c r="J46" t="n">
+        <v>291.0</v>
       </c>
       <c r="K46" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>2992</v>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2992.0</v>
       </c>
       <c r="B47" t="s">
         <v>294</v>
@@ -4930,34 +4615,34 @@
       <c r="C47" t="s">
         <v>354</v>
       </c>
-      <c r="D47">
-        <v>1265</v>
+      <c r="D47" t="n">
+        <v>1265.0</v>
       </c>
       <c r="E47" t="s">
         <v>414</v>
       </c>
-      <c r="F47">
-        <v>184</v>
+      <c r="F47" t="n">
+        <v>184.0</v>
       </c>
       <c r="G47" t="s">
         <v>472</v>
       </c>
-      <c r="H47">
-        <v>1234</v>
+      <c r="H47" t="n">
+        <v>1234.0</v>
       </c>
       <c r="I47" t="s">
         <v>532</v>
       </c>
-      <c r="J47">
-        <v>309</v>
+      <c r="J47" t="n">
+        <v>309.0</v>
       </c>
       <c r="K47" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>2925</v>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2925.0</v>
       </c>
       <c r="B48" t="s">
         <v>295</v>
@@ -4965,34 +4650,34 @@
       <c r="C48" t="s">
         <v>355</v>
       </c>
-      <c r="D48">
-        <v>1191</v>
+      <c r="D48" t="n">
+        <v>1191.0</v>
       </c>
       <c r="E48" t="s">
         <v>415</v>
       </c>
-      <c r="F48">
-        <v>137</v>
+      <c r="F48" t="n">
+        <v>137.0</v>
       </c>
       <c r="G48" t="s">
         <v>473</v>
       </c>
-      <c r="H48">
-        <v>1297</v>
+      <c r="H48" t="n">
+        <v>1297.0</v>
       </c>
       <c r="I48" t="s">
         <v>533</v>
       </c>
-      <c r="J48">
-        <v>300</v>
+      <c r="J48" t="n">
+        <v>300.0</v>
       </c>
       <c r="K48" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2853</v>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2853.0</v>
       </c>
       <c r="B49" t="s">
         <v>296</v>
@@ -5000,34 +4685,34 @@
       <c r="C49" t="s">
         <v>356</v>
       </c>
-      <c r="D49">
-        <v>1117</v>
+      <c r="D49" t="n">
+        <v>1117.0</v>
       </c>
       <c r="E49" t="s">
         <v>416</v>
       </c>
-      <c r="F49">
-        <v>220</v>
+      <c r="F49" t="n">
+        <v>220.0</v>
       </c>
       <c r="G49" t="s">
         <v>474</v>
       </c>
-      <c r="H49">
-        <v>1265</v>
+      <c r="H49" t="n">
+        <v>1265.0</v>
       </c>
       <c r="I49" t="s">
         <v>534</v>
       </c>
-      <c r="J49">
-        <v>251</v>
+      <c r="J49" t="n">
+        <v>251.0</v>
       </c>
       <c r="K49" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2791</v>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2791.0</v>
       </c>
       <c r="B50" t="s">
         <v>297</v>
@@ -5035,34 +4720,34 @@
       <c r="C50" t="s">
         <v>357</v>
       </c>
-      <c r="D50">
-        <v>1029</v>
+      <c r="D50" t="n">
+        <v>1029.0</v>
       </c>
       <c r="E50" t="s">
         <v>417</v>
       </c>
-      <c r="F50">
-        <v>172</v>
+      <c r="F50" t="n">
+        <v>172.0</v>
       </c>
       <c r="G50" t="s">
         <v>475</v>
       </c>
-      <c r="H50">
-        <v>1362</v>
+      <c r="H50" t="n">
+        <v>1362.0</v>
       </c>
       <c r="I50" t="s">
         <v>535</v>
       </c>
-      <c r="J50">
-        <v>228</v>
+      <c r="J50" t="n">
+        <v>228.0</v>
       </c>
       <c r="K50" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2630</v>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2630.0</v>
       </c>
       <c r="B51" t="s">
         <v>298</v>
@@ -5070,34 +4755,34 @@
       <c r="C51" t="s">
         <v>358</v>
       </c>
-      <c r="D51">
-        <v>956</v>
+      <c r="D51" t="n">
+        <v>956.0</v>
       </c>
       <c r="E51" t="s">
         <v>418</v>
       </c>
-      <c r="F51">
-        <v>78</v>
+      <c r="F51" t="n">
+        <v>78.0</v>
       </c>
       <c r="G51" t="s">
         <v>476</v>
       </c>
-      <c r="H51">
-        <v>1262</v>
+      <c r="H51" t="n">
+        <v>1262.0</v>
       </c>
       <c r="I51" t="s">
         <v>536</v>
       </c>
-      <c r="J51">
-        <v>334</v>
+      <c r="J51" t="n">
+        <v>334.0</v>
       </c>
       <c r="K51" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2456</v>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2456.0</v>
       </c>
       <c r="B52" t="s">
         <v>299</v>
@@ -5105,34 +4790,34 @@
       <c r="C52" t="s">
         <v>359</v>
       </c>
-      <c r="D52">
-        <v>1164</v>
+      <c r="D52" t="n">
+        <v>1164.0</v>
       </c>
       <c r="E52" t="s">
         <v>419</v>
       </c>
-      <c r="F52">
-        <v>218</v>
+      <c r="F52" t="n">
+        <v>218.0</v>
       </c>
       <c r="G52" t="s">
         <v>477</v>
       </c>
-      <c r="H52">
-        <v>958</v>
+      <c r="H52" t="n">
+        <v>958.0</v>
       </c>
       <c r="I52" t="s">
         <v>537</v>
       </c>
-      <c r="J52">
-        <v>116</v>
+      <c r="J52" t="n">
+        <v>116.0</v>
       </c>
       <c r="K52" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2430</v>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2430.0</v>
       </c>
       <c r="B53" t="s">
         <v>300</v>
@@ -5140,34 +4825,34 @@
       <c r="C53" t="s">
         <v>360</v>
       </c>
-      <c r="D53">
-        <v>1095</v>
+      <c r="D53" t="n">
+        <v>1095.0</v>
       </c>
       <c r="E53" t="s">
         <v>420</v>
       </c>
-      <c r="F53">
-        <v>178</v>
+      <c r="F53" t="n">
+        <v>178.0</v>
       </c>
       <c r="G53" t="s">
         <v>478</v>
       </c>
-      <c r="H53">
-        <v>978</v>
+      <c r="H53" t="n">
+        <v>978.0</v>
       </c>
       <c r="I53" t="s">
         <v>538</v>
       </c>
-      <c r="J53">
-        <v>179</v>
+      <c r="J53" t="n">
+        <v>179.0</v>
       </c>
       <c r="K53" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1911</v>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1911.0</v>
       </c>
       <c r="B54" t="s">
         <v>301</v>
@@ -5175,34 +4860,34 @@
       <c r="C54" t="s">
         <v>361</v>
       </c>
-      <c r="D54">
-        <v>704</v>
+      <c r="D54" t="n">
+        <v>704.0</v>
       </c>
       <c r="E54" t="s">
         <v>421</v>
       </c>
-      <c r="F54">
-        <v>64</v>
+      <c r="F54" t="n">
+        <v>64.0</v>
       </c>
       <c r="G54" t="s">
         <v>479</v>
       </c>
-      <c r="H54">
-        <v>909</v>
+      <c r="H54" t="n">
+        <v>909.0</v>
       </c>
       <c r="I54" t="s">
         <v>539</v>
       </c>
-      <c r="J54">
-        <v>234</v>
+      <c r="J54" t="n">
+        <v>234.0</v>
       </c>
       <c r="K54" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1368</v>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1368.0</v>
       </c>
       <c r="B55" t="s">
         <v>302</v>
@@ -5210,34 +4895,34 @@
       <c r="C55" t="s">
         <v>362</v>
       </c>
-      <c r="D55">
-        <v>576</v>
+      <c r="D55" t="n">
+        <v>576.0</v>
       </c>
       <c r="E55" t="s">
         <v>422</v>
       </c>
-      <c r="F55">
-        <v>120</v>
+      <c r="F55" t="n">
+        <v>120.0</v>
       </c>
       <c r="G55" t="s">
         <v>480</v>
       </c>
-      <c r="H55">
-        <v>566</v>
+      <c r="H55" t="n">
+        <v>566.0</v>
       </c>
       <c r="I55" t="s">
         <v>540</v>
       </c>
-      <c r="J55">
-        <v>106</v>
+      <c r="J55" t="n">
+        <v>106.0</v>
       </c>
       <c r="K55" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1356</v>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1356.0</v>
       </c>
       <c r="B56" t="s">
         <v>303</v>
@@ -5245,34 +4930,34 @@
       <c r="C56" t="s">
         <v>363</v>
       </c>
-      <c r="D56">
-        <v>606</v>
+      <c r="D56" t="n">
+        <v>606.0</v>
       </c>
       <c r="E56" t="s">
         <v>423</v>
       </c>
-      <c r="F56">
-        <v>118</v>
+      <c r="F56" t="n">
+        <v>118.0</v>
       </c>
       <c r="G56" t="s">
         <v>481</v>
       </c>
-      <c r="H56">
-        <v>520</v>
+      <c r="H56" t="n">
+        <v>520.0</v>
       </c>
       <c r="I56" t="s">
         <v>541</v>
       </c>
-      <c r="J56">
-        <v>112</v>
+      <c r="J56" t="n">
+        <v>112.0</v>
       </c>
       <c r="K56" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>986</v>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>986.0</v>
       </c>
       <c r="B57" t="s">
         <v>304</v>
@@ -5280,34 +4965,34 @@
       <c r="C57" t="s">
         <v>364</v>
       </c>
-      <c r="D57">
-        <v>395</v>
+      <c r="D57" t="n">
+        <v>395.0</v>
       </c>
       <c r="E57" t="s">
         <v>424</v>
       </c>
-      <c r="F57">
-        <v>67</v>
+      <c r="F57" t="n">
+        <v>67.0</v>
       </c>
       <c r="G57" t="s">
         <v>482</v>
       </c>
-      <c r="H57">
-        <v>427</v>
+      <c r="H57" t="n">
+        <v>427.0</v>
       </c>
       <c r="I57" t="s">
         <v>542</v>
       </c>
-      <c r="J57">
-        <v>97</v>
+      <c r="J57" t="n">
+        <v>97.0</v>
       </c>
       <c r="K57" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>846</v>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>846.0</v>
       </c>
       <c r="B58" t="s">
         <v>305</v>
@@ -5315,34 +5000,34 @@
       <c r="C58" t="s">
         <v>365</v>
       </c>
-      <c r="D58">
-        <v>396</v>
+      <c r="D58" t="n">
+        <v>396.0</v>
       </c>
       <c r="E58" t="s">
         <v>425</v>
       </c>
-      <c r="F58">
-        <v>82</v>
+      <c r="F58" t="n">
+        <v>82.0</v>
       </c>
       <c r="G58" t="s">
         <v>483</v>
       </c>
-      <c r="H58">
-        <v>329</v>
+      <c r="H58" t="n">
+        <v>329.0</v>
       </c>
       <c r="I58" t="s">
         <v>543</v>
       </c>
-      <c r="J58">
-        <v>39</v>
+      <c r="J58" t="n">
+        <v>39.0</v>
       </c>
       <c r="K58" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>534</v>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>534.0</v>
       </c>
       <c r="B59" t="s">
         <v>306</v>
@@ -5350,34 +5035,34 @@
       <c r="C59" t="s">
         <v>366</v>
       </c>
-      <c r="D59">
-        <v>219</v>
+      <c r="D59" t="n">
+        <v>219.0</v>
       </c>
       <c r="E59" t="s">
         <v>426</v>
       </c>
-      <c r="F59">
-        <v>31</v>
+      <c r="F59" t="n">
+        <v>31.0</v>
       </c>
       <c r="G59" t="s">
         <v>484</v>
       </c>
-      <c r="H59">
-        <v>238</v>
+      <c r="H59" t="n">
+        <v>238.0</v>
       </c>
       <c r="I59" t="s">
         <v>544</v>
       </c>
-      <c r="J59">
-        <v>46</v>
+      <c r="J59" t="n">
+        <v>46.0</v>
       </c>
       <c r="K59" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>380</v>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>380.0</v>
       </c>
       <c r="B60" t="s">
         <v>307</v>
@@ -5385,34 +5070,34 @@
       <c r="C60" t="s">
         <v>367</v>
       </c>
-      <c r="D60">
-        <v>156</v>
+      <c r="D60" t="n">
+        <v>156.0</v>
       </c>
       <c r="E60" t="s">
         <v>427</v>
       </c>
-      <c r="F60">
-        <v>18</v>
+      <c r="F60" t="n">
+        <v>18.0</v>
       </c>
       <c r="G60" t="s">
         <v>485</v>
       </c>
-      <c r="H60">
-        <v>168</v>
+      <c r="H60" t="n">
+        <v>168.0</v>
       </c>
       <c r="I60" t="s">
         <v>545</v>
       </c>
-      <c r="J60">
-        <v>38</v>
+      <c r="J60" t="n">
+        <v>38.0</v>
       </c>
       <c r="K60" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>71</v>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>71.0</v>
       </c>
       <c r="B61" t="s">
         <v>308</v>
@@ -5420,32 +5105,32 @@
       <c r="C61" t="s">
         <v>368</v>
       </c>
-      <c r="D61">
-        <v>26</v>
+      <c r="D61" t="n">
+        <v>26.0</v>
       </c>
       <c r="E61" t="s">
         <v>428</v>
       </c>
-      <c r="F61">
-        <v>3</v>
+      <c r="F61" t="n">
+        <v>3.0</v>
       </c>
       <c r="G61" t="s">
         <v>486</v>
       </c>
-      <c r="H61">
-        <v>37</v>
+      <c r="H61" t="n">
+        <v>37.0</v>
       </c>
       <c r="I61" t="s">
         <v>546</v>
       </c>
-      <c r="J61">
-        <v>5</v>
+      <c r="J61" t="n">
+        <v>5.0</v>
       </c>
       <c r="K61" t="s">
         <v>604</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>